--- a/src/files/orderInsertTalk23.xlsx
+++ b/src/files/orderInsertTalk23.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="55">
   <si>
     <t>이름</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>44444444444</t>
+  </si>
+  <si>
+    <t>장민수</t>
+  </si>
+  <si>
+    <t>01048563212</t>
+  </si>
+  <si>
+    <t>박경서</t>
+  </si>
+  <si>
+    <t>01045624524</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="12" width="10" customWidth="1"/>
@@ -1421,6 +1433,82 @@
         <v>14</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
